--- a/media/eb_order/eb_order_lump(request).xlsx
+++ b/media/eb_order/eb_order_lump(request).xlsx
@@ -686,6 +686,69 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,69 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1153,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,7 +1163,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1183,16 +1185,16 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1215,10 +1217,10 @@
       <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
@@ -1229,10 +1231,10 @@
       <c r="F5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
@@ -1358,7 +1360,7 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="14"/>
@@ -1382,21 +1384,21 @@
       <c r="A19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="10"/>
@@ -1410,7 +1412,7 @@
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="10"/>
@@ -1424,7 +1426,7 @@
       <c r="A22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="10"/>
@@ -1438,57 +1440,57 @@
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
@@ -1497,14 +1499,14 @@
       <c r="B27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
@@ -1513,14 +1515,14 @@
       <c r="B28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
@@ -1533,128 +1535,128 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>

--- a/media/eb_order/eb_order_lump(request).xlsx
+++ b/media/eb_order/eb_order_lump(request).xlsx
@@ -249,10 +249,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>{$SUBCONTRACTOR_NAME$}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>{$SUBCONTRACTOR_ADDRESS1$}</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -315,6 +311,10 @@
   </si>
   <si>
     <t>{$COMMENT$}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{$SUBCONTRACTOR_NAME$}   ㊞</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1153,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1286,7 +1286,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1297,7 +1297,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1308,7 +1308,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1319,7 +1319,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="4"/>
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1385,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1427,7 +1427,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1441,7 +1441,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -1455,7 +1455,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1469,7 +1469,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1483,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="31" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A31" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>

--- a/media/eb_order/eb_order_lump(request).xlsx
+++ b/media/eb_order/eb_order_lump(request).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7068"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -798,8 +798,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="723900" y="244475"/>
-          <a:ext cx="1044575" cy="946150"/>
+          <a:off x="723900" y="238760"/>
+          <a:ext cx="905510" cy="942340"/>
           <a:chOff x="838200" y="9918700"/>
           <a:chExt cx="927100" cy="946150"/>
         </a:xfrm>
@@ -1153,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,15 +1163,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1184,7 +1182,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="28.2" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1206,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1222,7 +1220,7 @@
       </c>
       <c r="H4" s="38"/>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1246,7 +1244,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1258,7 +1256,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1267,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1280,7 +1278,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1334,7 +1332,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1356,7 +1354,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1380,7 +1378,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>3</v>
       </c>
@@ -1394,7 +1392,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1406,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1420,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>6</v>
       </c>
@@ -1436,7 +1434,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1448,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1462,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
@@ -1478,7 +1476,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
@@ -1492,7 +1490,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
@@ -1508,7 +1506,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="19"/>
     </row>
-    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>14</v>
       </c>
@@ -1534,7 +1532,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>16</v>
       </c>
@@ -1546,7 +1544,7 @@
       <c r="G30" s="26"/>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>37</v>
       </c>
@@ -1558,7 +1556,7 @@
       <c r="G31" s="28"/>
       <c r="H31" s="29"/>
     </row>
-    <row r="32" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -1568,7 +1566,7 @@
       <c r="G32" s="31"/>
       <c r="H32" s="32"/>
     </row>
-    <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -1578,7 +1576,7 @@
       <c r="G33" s="31"/>
       <c r="H33" s="32"/>
     </row>
-    <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -1588,7 +1586,7 @@
       <c r="G34" s="31"/>
       <c r="H34" s="32"/>
     </row>
-    <row r="35" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -1598,7 +1596,7 @@
       <c r="G35" s="31"/>
       <c r="H35" s="32"/>
     </row>
-    <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -1608,7 +1606,7 @@
       <c r="G36" s="31"/>
       <c r="H36" s="32"/>
     </row>
-    <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -1618,7 +1616,7 @@
       <c r="G37" s="31"/>
       <c r="H37" s="32"/>
     </row>
-    <row r="38" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -1628,7 +1626,7 @@
       <c r="G38" s="31"/>
       <c r="H38" s="32"/>
     </row>
-    <row r="39" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -1638,7 +1636,7 @@
       <c r="G39" s="31"/>
       <c r="H39" s="32"/>
     </row>
-    <row r="40" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -1648,7 +1646,7 @@
       <c r="G40" s="31"/>
       <c r="H40" s="32"/>
     </row>
-    <row r="41" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
@@ -1658,7 +1656,7 @@
       <c r="G41" s="34"/>
       <c r="H41" s="35"/>
     </row>
-    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>

--- a/media/eb_order/eb_order_lump(request).xlsx
+++ b/media/eb_order/eb_order_lump(request).xlsx
@@ -791,108 +791,84 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="723900" y="238760"/>
           <a:ext cx="905510" cy="942340"/>
-          <a:chOff x="838200" y="9918700"/>
-          <a:chExt cx="927100" cy="946150"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="838200" y="9918700"/>
-            <a:ext cx="927100" cy="946150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="3175">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>印紙</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1073150" y="10274300"/>
-            <a:ext cx="571500" cy="241300"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>印紙</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1153,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1522,7 +1498,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>

--- a/media/eb_order/eb_order_lump(request).xlsx
+++ b/media/eb_order/eb_order_lump(request).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00F0DE4-F281-4AC6-B956-0D1CC07FEC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7068"/>
+    <workbookView xWindow="3672" yWindow="660" windowWidth="14040" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -41,16 +47,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>株式会社イー・ビジネス</t>
-    <rPh sb="0" eb="2">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>件名</t>
     <rPh sb="0" eb="2">
       <t>ケンメイ</t>
@@ -151,28 +147,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>東京都港区芝2-28-8芝2丁目ビル10階</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナトク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シバ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シバ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チョウメ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>及び納入場所</t>
     <rPh sb="0" eb="1">
       <t>オヨ</t>
@@ -315,13 +289,33 @@
   </si>
   <si>
     <t>{$SUBCONTRACTOR_NAME$}   ㊞</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>株式会社Wisdom Technology</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>東京都千代田区岩本町3-5-2 THE GATE AKIHABARA 202号</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>チヨダク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>イワモトチョウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
@@ -793,7 +787,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1129,14 +1129,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -1148,7 +1148,7 @@
     <col min="3" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="2" spans="1:9" ht="28.2" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -1171,7 +1171,7 @@
       <c r="H2" s="37"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="38"/>
     </row>
@@ -1206,11 +1206,11 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" s="39"/>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="8" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1249,7 +1249,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1260,45 +1260,45 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="4"/>
@@ -1320,7 +1320,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1344,7 +1344,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="19" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="20" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="21" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="22" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="23" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="24" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="25" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="26" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -1468,13 +1468,13 @@
     </row>
     <row r="27" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="C27" s="24" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="28" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="31" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
